--- a/biology/Botanique/Lefse/Lefse.xlsx
+++ b/biology/Botanique/Lefse/Lefse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lefse est un pain traditionnel norvégien composé de pommes de terre, lait ou crème fraîche, et farine, le tout cuit sur plaque chauffante.
@@ -512,7 +524,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a des variétés régionales assez différentes les unes des autres, quoique le résultat final reste assez fin (dans certaines régions de la Norvège, notamment dans le district de Valdres, le lefse peut être assez fin, s'approchant de l'épaisseur d'une crêpe).
 Il existe des ustensiles spéciaux destinés à la fabrication des lefse, y compris de longs bâtons en bois pour les retourner sur la plaque chauffante, et des rouleaux à pâtisserie à fentes profondes.
@@ -545,7 +559,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au centre de la Norvège on trouve la variante appelée tynnlefse (« lefse fin »), qui est enroulée avec du beurre, du sucre et de la cannelle (ou du beurre et sucre brun), et mangée comme petit gâteau ou crêpe.
 Le tjukklefse ou tykklefse (« lefse épais »), est, comme son nom l'indique, plus épais. Il est généralement servi avec le café à la fin d'un repas.
